--- a/verif_results/exact/datos_verificacion_relu_1como7.xlsx
+++ b/verif_results/exact/datos_verificacion_relu_1como7.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.9795851707458496</v>
+        <v>1.012295246124268</v>
       </c>
       <c r="F1" t="n">
         <v>0</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="J1" t="n">
-        <v>0.8918793201446533</v>
+        <v>1.28337574005127</v>
       </c>
       <c r="K1" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="O1" t="n">
-        <v>0.9899280071258545</v>
+        <v>1.558371067047119</v>
       </c>
       <c r="P1" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.603991031646729</v>
+        <v>2.110151529312134</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1.314931392669678</v>
+        <v>1.69218373298645</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1.547985315322876</v>
+        <v>1.627755165100098</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.302112102508545</v>
+        <v>1.298856019973755</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1.366179943084717</v>
+        <v>1.340834379196167</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>1.343899965286255</v>
+        <v>1.289283275604248</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.485629796981812</v>
+        <v>1.5290367603302</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1.489220142364502</v>
+        <v>1.911060810089111</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1.488600015640259</v>
+        <v>2.432433366775513</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1314182281494141</v>
+        <v>0.1392889022827148</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.1314558982849121</v>
+        <v>0.1398208141326904</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>0.1314549446105957</v>
+        <v>0.1396298408508301</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.408804416656494</v>
+        <v>1.541917085647583</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1.366974592208862</v>
+        <v>1.454708814620972</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>1.452268123626709</v>
+        <v>1.406359434127808</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.195846080780029</v>
+        <v>1.252127170562744</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1.248302459716797</v>
+        <v>1.228756189346313</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>1.228600740432739</v>
+        <v>1.249597311019897</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.93752121925354</v>
+        <v>9.004367351531982</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>6.96783971786499</v>
+        <v>8.940374135971069</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>9.67388653755188</v>
+        <v>8.928261756896973</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.326147556304932</v>
+        <v>1.352544069290161</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1.323011636734009</v>
+        <v>1.32750415802002</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>1.312606811523438</v>
+        <v>1.368880271911621</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7.846353530883789</v>
+        <v>8.100272178649902</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2.283620357513428</v>
+        <v>2.327048540115356</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>5.017789840698242</v>
+        <v>4.318389654159546</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.804864168167114</v>
+        <v>1.835726976394653</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1.779148578643799</v>
+        <v>1.762892007827759</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>1.784600973129272</v>
+        <v>1.853039026260376</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.89013957977295</v>
+        <v>35.44047355651855</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>26.63972544670105</v>
+        <v>27.2679500579834</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>30.48087215423584</v>
+        <v>31.14490079879761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>

--- a/verif_results/exact/datos_verificacion_relu_1como7.xlsx
+++ b/verif_results/exact/datos_verificacion_relu_1como7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,59 +437,68 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>1.012295246124268</v>
+        <v>1.281230449676514</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J1" t="n">
-        <v>1.28337574005127</v>
-      </c>
       <c r="K1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>0.8972163200378418</v>
+      </c>
+      <c r="L1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M1" t="n">
+        <v>0</v>
       </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O1" t="n">
-        <v>1.558371067047119</v>
-      </c>
-      <c r="P1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
+      <c r="Q1" t="n">
+        <v>0.9471511840820312</v>
+      </c>
+      <c r="R1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -511,59 +520,68 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.110151529312134</v>
+        <v>1.578601837158203</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>1.69218373298645</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.373403072357178</v>
+      </c>
+      <c r="L2" t="n">
+        <v>52</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>1.627755165100098</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>1.579975128173828</v>
+      </c>
+      <c r="R2" t="n">
+        <v>19</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -585,59 +603,68 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.298856019973755</v>
+        <v>1.392163991928101</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>37</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>1.340834379196167</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.301964521408081</v>
+      </c>
+      <c r="L3" t="n">
+        <v>37</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>1.289283275604248</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>1.31430721282959</v>
+      </c>
+      <c r="R3" t="n">
+        <v>37</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -659,59 +686,68 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.5290367603302</v>
+        <v>1.566368579864502</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>1.911060810089111</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.482587575912476</v>
+      </c>
+      <c r="L4" t="n">
+        <v>47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>2.432433366775513</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>1.578172445297241</v>
+      </c>
+      <c r="R4" t="n">
+        <v>47</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -733,59 +769,68 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1392889022827148</v>
+        <v>0.1408791542053223</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>0.1398208141326904</v>
-      </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>0.1401522159576416</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>0.1396298408508301</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>0.1403453350067139</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -807,59 +852,68 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.541917085647583</v>
+        <v>1.880370140075684</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>1.454708814620972</v>
-      </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>1.713941097259521</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O6" t="n">
-        <v>1.406359434127808</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>1.578983306884766</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -881,59 +935,68 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.252127170562744</v>
+        <v>1.182418823242188</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>45</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>1.228756189346313</v>
-      </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.201692581176758</v>
+      </c>
+      <c r="L7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>1.249597311019897</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>1.245464563369751</v>
+      </c>
+      <c r="R7" t="n">
+        <v>45</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -955,59 +1018,68 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.004367351531982</v>
+        <v>8.948260307312012</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>3388</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>8.940374135971069</v>
-      </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>9.019608736038208</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3388</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>8.928261756896973</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>9.006050825119019</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3388</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1029,59 +1101,68 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.352544069290161</v>
+        <v>1.338862657546997</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>1.32750415802002</v>
-      </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.329188823699951</v>
+      </c>
+      <c r="L9" t="n">
+        <v>13</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>1.368880271911621</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>1.328052043914795</v>
+      </c>
+      <c r="R9" t="n">
+        <v>13</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1103,59 +1184,68 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8.100272178649902</v>
+        <v>8.152454376220703</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
+        <v>1668</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>2.327048540115356</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>2.299049854278564</v>
+      </c>
+      <c r="L10" t="n">
+        <v>140</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>4.318389654159546</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>4.394090890884399</v>
+      </c>
+      <c r="R10" t="n">
+        <v>119</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1177,59 +1267,68 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.835726976394653</v>
+        <v>1.853468894958496</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>157</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>1.762892007827759</v>
-      </c>
       <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>1.805414199829102</v>
+      </c>
+      <c r="L11" t="n">
+        <v>157</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>1.853039026260376</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="Q11" t="n">
+        <v>1.817433595657349</v>
+      </c>
+      <c r="R11" t="n">
+        <v>157</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>
@@ -1251,59 +1350,68 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.44047355651855</v>
+        <v>35.51610374450684</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+        <v>10614</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>prop</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>27.2679500579834</v>
-      </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
+        <v>27.2059326171875</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11832</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>mix</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>31.14490079879761</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="Q12" t="n">
+        <v>31.13474440574646</v>
+      </c>
+      <c r="R12" t="n">
+        <v>12769</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>optimal</t>
         </is>

--- a/verif_results/exact/datos_verificacion_relu_1como7.xlsx
+++ b/verif_results/exact/datos_verificacion_relu_1como7.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>1.281230449676514</v>
+        <v>0.7943964004516602</v>
       </c>
       <c r="F1" t="n">
         <v>3</v>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>0.8972163200378418</v>
+        <v>0.8663003444671631</v>
       </c>
       <c r="L1" t="n">
         <v>3</v>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="Q1" t="n">
-        <v>0.9471511840820312</v>
+        <v>0.9924049377441406</v>
       </c>
       <c r="R1" t="n">
         <v>3</v>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.578601837158203</v>
+        <v>1.249737501144409</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1.373403072357178</v>
+        <v>1.29710865020752</v>
       </c>
       <c r="L2" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.579975128173828</v>
+        <v>1.315805435180664</v>
       </c>
       <c r="R2" t="n">
         <v>19</v>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.392163991928101</v>
+        <v>1.376143455505371</v>
       </c>
       <c r="F3" t="n">
         <v>37</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1.301964521408081</v>
+        <v>1.416935205459595</v>
       </c>
       <c r="L3" t="n">
         <v>37</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.31430721282959</v>
+        <v>1.369904279708862</v>
       </c>
       <c r="R3" t="n">
         <v>37</v>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.566368579864502</v>
+        <v>1.202491521835327</v>
       </c>
       <c r="F4" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1.482587575912476</v>
+        <v>1.172895193099976</v>
       </c>
       <c r="L4" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.578172445297241</v>
+        <v>1.13454794883728</v>
       </c>
       <c r="R4" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1408791542053223</v>
+        <v>0.1402523517608643</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.1401522159576416</v>
+        <v>0.140038013458252</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>0.1403453350067139</v>
+        <v>0.1406142711639404</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.880370140075684</v>
+        <v>1.437510013580322</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1.713941097259521</v>
+        <v>1.598038911819458</v>
       </c>
       <c r="L6" t="n">
         <v>9</v>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1.578983306884766</v>
+        <v>1.507389783859253</v>
       </c>
       <c r="R6" t="n">
         <v>9</v>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.182418823242188</v>
+        <v>1.268845319747925</v>
       </c>
       <c r="F7" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1.201692581176758</v>
+        <v>1.326526165008545</v>
       </c>
       <c r="L7" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>1.245464563369751</v>
+        <v>1.315246343612671</v>
       </c>
       <c r="R7" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.948260307312012</v>
+        <v>7.814416408538818</v>
       </c>
       <c r="F8" t="n">
-        <v>3388</v>
+        <v>2740</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>9.019608736038208</v>
+        <v>7.816672325134277</v>
       </c>
       <c r="L8" t="n">
-        <v>3388</v>
+        <v>2740</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>9.006050825119019</v>
+        <v>7.786077737808228</v>
       </c>
       <c r="R8" t="n">
-        <v>3388</v>
+        <v>2740</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.338862657546997</v>
+        <v>1.725878000259399</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.329188823699951</v>
+        <v>1.726739406585693</v>
       </c>
       <c r="L9" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.328052043914795</v>
+        <v>1.360673666000366</v>
       </c>
       <c r="R9" t="n">
         <v>13</v>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8.152454376220703</v>
+        <v>4.961138248443604</v>
       </c>
       <c r="F10" t="n">
-        <v>1668</v>
+        <v>1603</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>2.299049854278564</v>
+        <v>4.554373025894165</v>
       </c>
       <c r="L10" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>4.394090890884399</v>
+        <v>4.82663106918335</v>
       </c>
       <c r="R10" t="n">
         <v>119</v>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.853468894958496</v>
+        <v>1.66686487197876</v>
       </c>
       <c r="F11" t="n">
         <v>157</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1.805414199829102</v>
+        <v>1.665885448455811</v>
       </c>
       <c r="L11" t="n">
         <v>157</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>1.817433595657349</v>
+        <v>1.629508495330811</v>
       </c>
       <c r="R11" t="n">
         <v>157</v>
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.51610374450684</v>
+        <v>25.20290040969849</v>
       </c>
       <c r="F12" t="n">
-        <v>10614</v>
+        <v>10046</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>27.2059326171875</v>
+        <v>33.31531643867493</v>
       </c>
       <c r="L12" t="n">
-        <v>11832</v>
+        <v>12050</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>31.13474440574646</v>
+        <v>31.16975498199463</v>
       </c>
       <c r="R12" t="n">
-        <v>12769</v>
+        <v>11486</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
